--- a/biology/Botanique/Elytraria/Elytraria.xlsx
+++ b/biology/Botanique/Elytraria/Elytraria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elytraria Michx. est un genre de plantes de la famille des Acanthaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (7 janvier 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (7 janvier 2018) :
 Elytraria acaulis (L. fil.) Lindau
 Elytraria bissei H. Dietrich
 Elytraria bromoides Oerst.
@@ -535,15 +549,15 @@
 Elytraria shaferi (P. Wilson) Leonard
 Elytraria spathulifolia A. Borhidi &amp; O. Muniz
 Elytraria tuberosa Leonard
-Selon GRIN            (7 janvier 2018)[3] :
+Selon GRIN            (7 janvier 2018) :
 Elytraria crenata Vahl
 Elytraria cubana Alain
 Elytraria imbricata (Vahl) Pers.
-Selon ITIS      (7 janvier 2018)[4] :
+Selon ITIS      (7 janvier 2018) :
 Elytraria bromoides Oerst.
 Elytraria caroliniensis (J.F. Gmel.) Pers.
 Elytraria imbricata (Vahl) Pers.
-Selon NCBI  (7 janvier 2018)[5] :
+Selon NCBI  (7 janvier 2018) :
 Elytraria acaulis
 Elytraria bromoides
 Elytraria caroliniensis
@@ -557,7 +571,7 @@
 Elytraria nodosa
 Elytraria planifolia
 Elytraria prolifera
-Selon The Plant List            (7 janvier 2018)[6] :
+Selon The Plant List            (7 janvier 2018) :
 Elytraria acaulis (L.f.) Lindau
 Elytraria bissei H.Dietr.
 Elytraria bromoides Oerst.
@@ -579,7 +593,7 @@
 Elytraria shaferi (P.Wilson) Leonard
 Elytraria spathulifolia Borhidi &amp; O.Muñiz
 Elytraria tuberosa Leonard
-Selon Tropicos                                           (7 janvier 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (7 janvier 2018) (Attention liste brute contenant possiblement des synonymes) :
 Elytraria acaulis (L. f.) Lindau
 Elytraria acuminata (Small) Cory
 Elytraria amara Blanco
